--- a/biology/Botanique/Orbea_variegata/Orbea_variegata.xlsx
+++ b/biology/Botanique/Orbea_variegata/Orbea_variegata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Orbea variegata est une espèce de plante à fleurs de la famille des Apocynaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Orbea variegata est originaire de la ceinture côtière du Cap-Occidental, en Afrique du Sud, en croissance active au cours de la saison des pluies en hiver[2]. Sa croissance est  10 cm en hauteur pour  50 cm de large, c'est une vivace succulente sans feuilles avec une tige comme un cactus, avec une apparence de dents sur la tiges très variable, mais sans épines , la fleur est en forme d'étoile, de couleur blanc cassé ou jaune fortement tachetée de marron, jusqu'à 8 cm de diamètre. Les fleurs peuvent montrer des marquages en bandes régulières, ou irrégulières. Elles sont à cinq branches aux lobes arrondis autour d'un centre, de forme pentagonale, la couronne (corona)[3]. Chaque plante peut produire jusqu'à cinq fleurs. Les fleurs peuvent avoir une subtile odeur de charogne pour attirer des insectes pollinisateurs[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Orbea variegata est originaire de la ceinture côtière du Cap-Occidental, en Afrique du Sud, en croissance active au cours de la saison des pluies en hiver. Sa croissance est  10 cm en hauteur pour  50 cm de large, c'est une vivace succulente sans feuilles avec une tige comme un cactus, avec une apparence de dents sur la tiges très variable, mais sans épines , la fleur est en forme d'étoile, de couleur blanc cassé ou jaune fortement tachetée de marron, jusqu'à 8 cm de diamètre. Les fleurs peuvent montrer des marquages en bandes régulières, ou irrégulières. Elles sont à cinq branches aux lobes arrondis autour d'un centre, de forme pentagonale, la couronne (corona). Chaque plante peut produire jusqu'à cinq fleurs. Les fleurs peuvent avoir une subtile odeur de charogne pour attirer des insectes pollinisateurs.
 Cette plante est très populaire en culture, et est souvent vendu sous son ancien nom de Stapelia variegata. Elle a beaucoup de noms communs, y compris : étoiles de mer,  étoiles de mer cactus, fleurs de charogne, la plante crapaud. Elle n'est pas étroitement liée à la véritable famille des cactus .
 Lorsqu'elle est cultivée comme plante ornementale dans les zones tempérées, elle nécessite une protection, car elle ne tolère pas des températures négatives. Il est préférable de la cultiver sous serre, dans des conditions similaires aux cactus.
 Le nombre impressionnant de synonymes, plus d’une centaine , prouve aussi l’intérêt qu’elle a suscité chez les botanistes, au moins depuis 1797.
